--- a/data/trans_orig/P2A_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>330698</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>307303</v>
+        <v>308460</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>353752</v>
+        <v>358980</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5661278312535341</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5260761334329483</v>
+        <v>0.5280566651798453</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6055928436933112</v>
+        <v>0.6145435243275224</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>680</v>
@@ -765,19 +765,19 @@
         <v>700275</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>673534</v>
+        <v>671897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>724607</v>
+        <v>725401</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7592429858224268</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7302505587344196</v>
+        <v>0.7284752197057532</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7856239915177824</v>
+        <v>0.7864853813090453</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1012</v>
@@ -786,19 +786,19 @@
         <v>1030973</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>994925</v>
+        <v>994171</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1066818</v>
+        <v>1068880</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6843618277915223</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6604332260075404</v>
+        <v>0.6599326691884063</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7081556996696268</v>
+        <v>0.7095245417340099</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>253443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>230389</v>
+        <v>225161</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>276838</v>
+        <v>275681</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4338721687464659</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3944071563066889</v>
+        <v>0.3854564756724776</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4739238665670518</v>
+        <v>0.4719433348201547</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>205</v>
@@ -836,19 +836,19 @@
         <v>222058</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>197726</v>
+        <v>196932</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>248799</v>
+        <v>250436</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2407570141775733</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2143760084822175</v>
+        <v>0.2135146186909546</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2697494412655804</v>
+        <v>0.2715247802942467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>447</v>
@@ -857,19 +857,19 @@
         <v>475501</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>439656</v>
+        <v>437594</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>511549</v>
+        <v>512303</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3156381722084777</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2918443003303732</v>
+        <v>0.2904754582659896</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3395667739924595</v>
+        <v>0.3400673308115937</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>539011</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>507360</v>
+        <v>504917</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>571265</v>
+        <v>572026</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5000594279929744</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4706954529699137</v>
+        <v>0.4684289183211471</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5299826474853061</v>
+        <v>0.5306888289493518</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>637</v>
@@ -982,19 +982,19 @@
         <v>655181</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>625398</v>
+        <v>625988</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>685470</v>
+        <v>685765</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6195341630436235</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5913720067003775</v>
+        <v>0.5919299109183478</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6481750993911125</v>
+        <v>0.6484544937699647</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1174</v>
@@ -1003,19 +1003,19 @@
         <v>1194192</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1146678</v>
+        <v>1150059</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1240887</v>
+        <v>1240016</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5592273484036313</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5369770579453983</v>
+        <v>0.5385601258518735</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5810939164498581</v>
+        <v>0.580686305143241</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>538883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>506629</v>
+        <v>505868</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>570534</v>
+        <v>572977</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4999405720070256</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.470017352514694</v>
+        <v>0.4693111710506486</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5293045470300864</v>
+        <v>0.5315710816788538</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>391</v>
@@ -1053,19 +1053,19 @@
         <v>402357</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>372068</v>
+        <v>371773</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>432140</v>
+        <v>431550</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3804658369563765</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3518249006088875</v>
+        <v>0.3515455062300353</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4086279932996226</v>
+        <v>0.408070089081652</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>909</v>
@@ -1074,19 +1074,19 @@
         <v>941240</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>894545</v>
+        <v>895416</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>988754</v>
+        <v>985373</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4407726515963687</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4189060835501419</v>
+        <v>0.419313694856759</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4630229420546015</v>
+        <v>0.4614398741481264</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>503356</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>467661</v>
+        <v>470423</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>536020</v>
+        <v>538421</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4487864310655887</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4169607966039482</v>
+        <v>0.4194234912691</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.477908723766872</v>
+        <v>0.4800499588553841</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>552</v>
@@ -1199,19 +1199,19 @@
         <v>558222</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>528866</v>
+        <v>525329</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>591984</v>
+        <v>587827</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5616259159021657</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5320900413275262</v>
+        <v>0.5285316252455735</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5955930393880692</v>
+        <v>0.5914114050578303</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1055</v>
@@ -1220,19 +1220,19 @@
         <v>1061579</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1017320</v>
+        <v>1018959</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1106938</v>
+        <v>1109388</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5018017167083954</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4808809833372258</v>
+        <v>0.4816558604684532</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5232427516246392</v>
+        <v>0.5244010585853223</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>618238</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>585574</v>
+        <v>583173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>653933</v>
+        <v>651171</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5512135689344113</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5220912762331279</v>
+        <v>0.519950041144616</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5830392033960519</v>
+        <v>0.5805765087309004</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>430</v>
@@ -1270,19 +1270,19 @@
         <v>435718</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>401956</v>
+        <v>406113</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>465074</v>
+        <v>468611</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4383740840978343</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4044069606119307</v>
+        <v>0.4085885949421696</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4679099586724737</v>
+        <v>0.4714683747544264</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1030</v>
@@ -1291,19 +1291,19 @@
         <v>1053955</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1008596</v>
+        <v>1006146</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1098214</v>
+        <v>1096575</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4981982832916046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4767572483753608</v>
+        <v>0.4755989414146778</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5191190166627742</v>
+        <v>0.5183441395315469</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>182816</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>160974</v>
+        <v>161675</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>205123</v>
+        <v>203559</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4088004354214028</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3599606758376703</v>
+        <v>0.3615263941621287</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4586831896452037</v>
+        <v>0.4551850488825913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>202</v>
@@ -1416,19 +1416,19 @@
         <v>205198</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>187930</v>
+        <v>186454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>222282</v>
+        <v>224092</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6014750326320712</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5508581353561408</v>
+        <v>0.5465336573112404</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6515521751618448</v>
+        <v>0.6568578587116288</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>381</v>
@@ -1437,19 +1437,19 @@
         <v>388014</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>360159</v>
+        <v>359717</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>416152</v>
+        <v>415079</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4921794659062996</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4568470201817242</v>
+        <v>0.456285968863988</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5278717487032855</v>
+        <v>0.5265102799423299</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>264384</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>242077</v>
+        <v>243641</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>286226</v>
+        <v>285525</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5911995645785972</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5413168103547964</v>
+        <v>0.5448149511174087</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6400393241623297</v>
+        <v>0.6384736058378713</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>137</v>
@@ -1487,19 +1487,19 @@
         <v>135960</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>118876</v>
+        <v>117066</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>153228</v>
+        <v>154704</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3985249673679288</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3484478248381551</v>
+        <v>0.343142141288371</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4491418646438591</v>
+        <v>0.4534663426887596</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>394</v>
@@ -1508,19 +1508,19 @@
         <v>400344</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>372206</v>
+        <v>373279</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>428199</v>
+        <v>428641</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5078205340937004</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4721282512967146</v>
+        <v>0.4734897200576701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5431529798182758</v>
+        <v>0.5437140311360118</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1555881</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1504509</v>
+        <v>1495472</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1622981</v>
+        <v>1616310</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4815733998570561</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4656726388961702</v>
+        <v>0.4628755183845353</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5023418660115101</v>
+        <v>0.5002772082285846</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2071</v>
@@ -1633,19 +1633,19 @@
         <v>2118876</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2064720</v>
+        <v>2062415</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2173914</v>
+        <v>2170967</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6391843477712922</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6228474079838506</v>
+        <v>0.622152219585372</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6557870363538327</v>
+        <v>0.6548981716861897</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3622</v>
@@ -1654,19 +1654,19 @@
         <v>3674758</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3593047</v>
+        <v>3591699</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3755131</v>
+        <v>3753523</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5613918374076059</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5489089652569957</v>
+        <v>0.5487030506887486</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5736704037317395</v>
+        <v>0.5734248624460917</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1674948</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1607848</v>
+        <v>1614519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1726320</v>
+        <v>1735357</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5184266001429439</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.49765813398849</v>
+        <v>0.4997227917714154</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5343273611038302</v>
+        <v>0.5371244816154648</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1163</v>
@@ -1704,19 +1704,19 @@
         <v>1196093</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1141055</v>
+        <v>1144002</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1250249</v>
+        <v>1252554</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3608156522287078</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.344212963646167</v>
+        <v>0.3451018283138103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3771525920161493</v>
+        <v>0.3778477804146271</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2780</v>
@@ -1725,19 +1725,19 @@
         <v>2871040</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2790667</v>
+        <v>2792275</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2952751</v>
+        <v>2954099</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4386081625923941</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4263295962682607</v>
+        <v>0.4265751375539082</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4510910347430044</v>
+        <v>0.4512969493112514</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>569151</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>535687</v>
+        <v>537157</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>602343</v>
+        <v>602279</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5451981431844954</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5131421256768902</v>
+        <v>0.5145500720099068</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5769924304292903</v>
+        <v>0.576931553157466</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>737</v>
@@ -2090,19 +2090,19 @@
         <v>800995</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>769887</v>
+        <v>767232</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>832211</v>
+        <v>831598</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.71521986024048</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6874428572264465</v>
+        <v>0.685072672279289</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7430936347539779</v>
+        <v>0.7425455889345997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1261</v>
@@ -2111,19 +2111,19 @@
         <v>1370146</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1321357</v>
+        <v>1322382</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1412614</v>
+        <v>1416149</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6331945313996674</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6106473257533865</v>
+        <v>0.6111209081615495</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6528202620107781</v>
+        <v>0.6544541530168686</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>474784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>441592</v>
+        <v>441656</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>508248</v>
+        <v>506778</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4548018568155046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4230075695707098</v>
+        <v>0.4230684468425335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4868578743231106</v>
+        <v>0.4854499279900927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>294</v>
@@ -2161,19 +2161,19 @@
         <v>318933</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>287717</v>
+        <v>288330</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>350041</v>
+        <v>352696</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.28478013975952</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.256906365246022</v>
+        <v>0.2574544110654003</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3125571427735535</v>
+        <v>0.314927327720711</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>748</v>
@@ -2182,19 +2182,19 @@
         <v>793717</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>751249</v>
+        <v>747714</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>842506</v>
+        <v>841481</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3668054686003326</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3471797379892215</v>
+        <v>0.3455458469831313</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3893526742466135</v>
+        <v>0.3888790918384504</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>564414</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>530931</v>
+        <v>533617</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>596808</v>
+        <v>597523</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5776584504518485</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5433891414426825</v>
+        <v>0.5461379145014817</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.610811822670117</v>
+        <v>0.6115438688268786</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>713</v>
@@ -2307,19 +2307,19 @@
         <v>764852</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>733329</v>
+        <v>734369</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>796975</v>
+        <v>793259</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6989660922662996</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6701586001461681</v>
+        <v>0.6711088266108354</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.728322352407738</v>
+        <v>0.7249257667283234</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1247</v>
@@ -2328,19 +2328,19 @@
         <v>1329267</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1281979</v>
+        <v>1283758</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1376477</v>
+        <v>1371682</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6417438666130829</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6189144870032479</v>
+        <v>0.6197734633376072</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6645363338167226</v>
+        <v>0.6622211661116201</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>412659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>380265</v>
+        <v>379550</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>446142</v>
+        <v>443456</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4223415495481516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.389188177329883</v>
+        <v>0.3884561311731214</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4566108585573175</v>
+        <v>0.4538620854985182</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>307</v>
@@ -2378,19 +2378,19 @@
         <v>329410</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>297287</v>
+        <v>301003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>360933</v>
+        <v>359893</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3010339077337004</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.271677647592262</v>
+        <v>0.2750742332716767</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3298413998538319</v>
+        <v>0.3288911733891646</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>697</v>
@@ -2399,19 +2399,19 @@
         <v>742068</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>694858</v>
+        <v>699653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>789356</v>
+        <v>787577</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3582561333869171</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3354636661832773</v>
+        <v>0.3377788338883794</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3810855129967521</v>
+        <v>0.3802265366623928</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>517782</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>484052</v>
+        <v>487242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>546650</v>
+        <v>548999</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5849884861390584</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5468800091795808</v>
+        <v>0.5504839210667598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6176033808649289</v>
+        <v>0.620257299470139</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>556</v>
@@ -2524,19 +2524,19 @@
         <v>592022</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>562694</v>
+        <v>563217</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>618846</v>
+        <v>622144</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6759820486293541</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6424949366247075</v>
+        <v>0.6430911045557655</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7066099038569391</v>
+        <v>0.7103758684628252</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1040</v>
@@ -2545,19 +2545,19 @@
         <v>1109804</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1069862</v>
+        <v>1070816</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1155313</v>
+        <v>1156903</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6302444832860364</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6075618540701033</v>
+        <v>0.6081032415605748</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6560881536785288</v>
+        <v>0.6569911781384238</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>367333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>338465</v>
+        <v>336116</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>401063</v>
+        <v>397873</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4150115138609416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3823966191350711</v>
+        <v>0.379742700529861</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4531199908204192</v>
+        <v>0.4495160789332401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>265</v>
@@ -2595,19 +2595,19 @@
         <v>283774</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>256950</v>
+        <v>253652</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>313102</v>
+        <v>312579</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.324017951370646</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2933900961430608</v>
+        <v>0.2896241315371747</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3575050633752923</v>
+        <v>0.3569088954442345</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>611</v>
@@ -2616,19 +2616,19 @@
         <v>651107</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>605598</v>
+        <v>604008</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>691049</v>
+        <v>690095</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3697555167139636</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3439118463214713</v>
+        <v>0.3430088218615763</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3924381459298968</v>
+        <v>0.3918967584394252</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>245004</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>222203</v>
+        <v>217770</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>269881</v>
+        <v>266829</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4870632936729313</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4417344465689087</v>
+        <v>0.4329231825745945</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5365185413542531</v>
+        <v>0.5304515102951667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>257</v>
@@ -2741,19 +2741,19 @@
         <v>293592</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>273468</v>
+        <v>271276</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>315622</v>
+        <v>314281</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6484828905575969</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6040342150542286</v>
+        <v>0.5991916236293141</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6971436659922553</v>
+        <v>0.6941811836183726</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>479</v>
@@ -2762,19 +2762,19 @@
         <v>538595</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>506039</v>
+        <v>510670</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>569906</v>
+        <v>575926</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5635265580731145</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5294640040882432</v>
+        <v>0.5343085348510707</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5962868305205575</v>
+        <v>0.6025854921085831</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>258019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>233142</v>
+        <v>236194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>280820</v>
+        <v>285253</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5129367063270687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4634814586457469</v>
+        <v>0.4695484897048334</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5582655534310913</v>
+        <v>0.5670768174254056</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -2812,19 +2812,19 @@
         <v>159144</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>137114</v>
+        <v>138455</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>179268</v>
+        <v>181460</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3515171094424032</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3028563340077445</v>
+        <v>0.3058188163816273</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3959657849457712</v>
+        <v>0.4008083763706856</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>394</v>
@@ -2833,19 +2833,19 @@
         <v>417163</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>385852</v>
+        <v>379832</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>449719</v>
+        <v>445088</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4364734419268855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4037131694794425</v>
+        <v>0.3974145078914167</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4705359959117567</v>
+        <v>0.4656914651489293</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1896351</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1832732</v>
+        <v>1834246</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1952534</v>
+        <v>1961202</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5562542804937792</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5375928183048242</v>
+        <v>0.5380370102718811</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.572734144870876</v>
+        <v>0.5752766474730688</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2263</v>
@@ -2958,19 +2958,19 @@
         <v>2451461</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2393784</v>
+        <v>2391700</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2502210</v>
+        <v>2508963</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6919709588122127</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6756907193768577</v>
+        <v>0.6751024108680407</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7062959176520426</v>
+        <v>0.7082021744412852</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4027</v>
@@ -2979,19 +2979,19 @@
         <v>4347812</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4268664</v>
+        <v>4264566</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4430751</v>
+        <v>4431788</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6254164826639319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6140313206993374</v>
+        <v>0.6134417855431734</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6373468844676312</v>
+        <v>0.6374960777733248</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1512794</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1456611</v>
+        <v>1447943</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1576413</v>
+        <v>1574899</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4437457195062207</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.427265855129124</v>
+        <v>0.4247233525269313</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4624071816951759</v>
+        <v>0.4619629897281189</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1021</v>
@@ -3029,19 +3029,19 @@
         <v>1091261</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1040512</v>
+        <v>1033759</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1148938</v>
+        <v>1151022</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3080290411877873</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2937040823479574</v>
+        <v>0.2917978255587151</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3243092806231423</v>
+        <v>0.3248975891319594</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2450</v>
@@ -3050,19 +3050,19 @@
         <v>2604055</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2521116</v>
+        <v>2520079</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2683203</v>
+        <v>2687301</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3745835173360681</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3626531155323688</v>
+        <v>0.3625039222266754</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3859686793006625</v>
+        <v>0.3865582144568267</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>641467</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>606341</v>
+        <v>608031</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>673825</v>
+        <v>675328</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5686783132255364</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5375376401036489</v>
+        <v>0.539036239988876</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.597363931123394</v>
+        <v>0.5986968130025094</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>780</v>
@@ -3415,19 +3415,19 @@
         <v>846445</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>813210</v>
+        <v>812707</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>878044</v>
+        <v>881172</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6720162776455338</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6456295998718389</v>
+        <v>0.6452303737287212</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6971029746563553</v>
+        <v>0.6995864635809483</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1393</v>
@@ -3436,19 +3436,19 @@
         <v>1487913</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1437458</v>
+        <v>1437323</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1531296</v>
+        <v>1535459</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6231944531570849</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6020618595751007</v>
+        <v>0.6020055063494343</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6413650571623888</v>
+        <v>0.6431087326117633</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>486530</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>454172</v>
+        <v>452669</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>521656</v>
+        <v>519966</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4313216867744636</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.402636068876606</v>
+        <v>0.4013031869974906</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4624623598963511</v>
+        <v>0.4609637600111239</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>408</v>
@@ -3486,19 +3486,19 @@
         <v>413116</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>381517</v>
+        <v>378389</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>446351</v>
+        <v>446854</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3279837223544661</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3028970253436445</v>
+        <v>0.3004135364190517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.354370400128161</v>
+        <v>0.3547696262712788</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>861</v>
@@ -3507,19 +3507,19 @@
         <v>899645</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>856262</v>
+        <v>852099</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>950100</v>
+        <v>950235</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3768055468429152</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3586349428376112</v>
+        <v>0.3568912673882368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3979381404248992</v>
+        <v>0.3979944936505658</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>467399</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>437401</v>
+        <v>435538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>497816</v>
+        <v>498888</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5142897736421714</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4812820484857019</v>
+        <v>0.4792321901791256</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5477580140902522</v>
+        <v>0.5489376590828317</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>594</v>
@@ -3632,19 +3632,19 @@
         <v>642712</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>612034</v>
+        <v>614772</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>672208</v>
+        <v>676520</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6385769121746094</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6080963720290742</v>
+        <v>0.6108173003961429</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6678831000808915</v>
+        <v>0.672167737166536</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1054</v>
@@ -3653,19 +3653,19 @@
         <v>1110111</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1065681</v>
+        <v>1069362</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1152990</v>
+        <v>1154047</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5796016985052848</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5564043173934091</v>
+        <v>0.5583261041332218</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6019894431833955</v>
+        <v>0.6025412457963237</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>441426</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>411009</v>
+        <v>409937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>471424</v>
+        <v>473287</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4857102263578286</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4522419859097478</v>
+        <v>0.4510623409171687</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.518717951514298</v>
+        <v>0.5207678098208744</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>357</v>
@@ -3703,19 +3703,19 @@
         <v>363763</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>334267</v>
+        <v>329955</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>394441</v>
+        <v>391703</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3614230878253906</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3321168999191086</v>
+        <v>0.3278322628334639</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.391903627970926</v>
+        <v>0.389182699603857</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>778</v>
@@ -3724,19 +3724,19 @@
         <v>805189</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>762310</v>
+        <v>761253</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>849619</v>
+        <v>845938</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4203983014947153</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3980105568166046</v>
+        <v>0.3974587542036764</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4435956826065912</v>
+        <v>0.4416738958667784</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>404006</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>371608</v>
+        <v>373872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>431609</v>
+        <v>437187</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4904413890374347</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4511124606064124</v>
+        <v>0.4538609413237508</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5239509917525348</v>
+        <v>0.5307223097017925</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>426</v>
@@ -3849,19 +3849,19 @@
         <v>470395</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>444594</v>
+        <v>444202</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>499131</v>
+        <v>497183</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.610063664591476</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5766012461254602</v>
+        <v>0.5760937356326168</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.647331231499316</v>
+        <v>0.6448050759175195</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>816</v>
@@ -3870,19 +3870,19 @@
         <v>874401</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>837596</v>
+        <v>831820</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>917243</v>
+        <v>913661</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5482760739069685</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.525198287664564</v>
+        <v>0.5215768031167862</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5751394603038413</v>
+        <v>0.5728933815686205</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>419753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>392150</v>
+        <v>386572</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>452151</v>
+        <v>449887</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5095586109625653</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4760490082474652</v>
+        <v>0.4692776902982074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5488875393935876</v>
+        <v>0.5461390586762492</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>302</v>
@@ -3920,19 +3920,19 @@
         <v>300664</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>271928</v>
+        <v>273876</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326465</v>
+        <v>326857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.389936335408524</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.352668768500684</v>
+        <v>0.3551949240824806</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4233987538745398</v>
+        <v>0.4239062643673832</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>699</v>
@@ -3941,19 +3941,19 @@
         <v>720417</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>677575</v>
+        <v>681157</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>757222</v>
+        <v>762998</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4517239260930315</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4248605396961587</v>
+        <v>0.4271066184313795</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4748017123354361</v>
+        <v>0.4784231968832137</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>238981</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>212930</v>
+        <v>214435</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>262453</v>
+        <v>261754</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4716414292751787</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4202285310710037</v>
+        <v>0.4231974591497883</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5179649113811197</v>
+        <v>0.5165841316482125</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>256</v>
@@ -4066,19 +4066,19 @@
         <v>285833</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>264436</v>
+        <v>263135</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>306890</v>
+        <v>305214</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5836918985360983</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5399984105528718</v>
+        <v>0.5373422784940514</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6266913844014549</v>
+        <v>0.623269152879171</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>479</v>
@@ -4087,19 +4087,19 @@
         <v>524813</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>493482</v>
+        <v>494402</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>558430</v>
+        <v>555359</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5267106039712712</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4952654786395154</v>
+        <v>0.4961891090241071</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5604491103860157</v>
+        <v>0.5573662808951744</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>267720</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>244248</v>
+        <v>244947</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>293771</v>
+        <v>292266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5283585707248213</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4820350886188803</v>
+        <v>0.4834158683517875</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5797714689289963</v>
+        <v>0.5768025408502117</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>199</v>
@@ -4137,19 +4137,19 @@
         <v>203865</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>182808</v>
+        <v>184484</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>225262</v>
+        <v>226563</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4163081014639018</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3733086155985452</v>
+        <v>0.3767308471208291</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4600015894471283</v>
+        <v>0.4626577215059486</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>447</v>
@@ -4158,19 +4158,19 @@
         <v>471585</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>437968</v>
+        <v>441039</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>502916</v>
+        <v>501996</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4732893960287287</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4395508896139844</v>
+        <v>0.4426337191048256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5047345213604846</v>
+        <v>0.5038108909758928</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1751854</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1691209</v>
+        <v>1691932</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1812042</v>
+        <v>1813903</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5202574456701622</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5022476061936808</v>
+        <v>0.5024623489873479</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5381318168139849</v>
+        <v>0.5386846501392424</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2056</v>
@@ -4283,19 +4283,19 @@
         <v>2245384</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2186928</v>
+        <v>2187862</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2299113</v>
+        <v>2300741</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6366648251483895</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.620089941870607</v>
+        <v>0.6203546631373428</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6518991122782875</v>
+        <v>0.6523607474600345</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3742</v>
@@ -4304,19 +4304,19 @@
         <v>3997239</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3922546</v>
+        <v>3913085</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4087996</v>
+        <v>4091576</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5798078102251106</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.568973486084197</v>
+        <v>0.5676011002317257</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.592972316880724</v>
+        <v>0.5934916428648592</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1615428</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1555240</v>
+        <v>1553379</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1676073</v>
+        <v>1675350</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4797425543298379</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.461868183186015</v>
+        <v>0.4613153498607576</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4977523938063192</v>
+        <v>0.4975376510126521</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1266</v>
@@ -4354,19 +4354,19 @@
         <v>1281408</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1227679</v>
+        <v>1226051</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1339864</v>
+        <v>1338930</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3633351748516105</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3481008877217124</v>
+        <v>0.3476392525399655</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.379910058129393</v>
+        <v>0.3796453368626572</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2785</v>
@@ -4375,19 +4375,19 @@
         <v>2896836</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2806079</v>
+        <v>2802499</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2971529</v>
+        <v>2980990</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4201921897748894</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4070276831192761</v>
+        <v>0.4065083571351409</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4310265139158033</v>
+        <v>0.4323988997682745</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>241085</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>217418</v>
+        <v>217062</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>267309</v>
+        <v>268102</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4833893965311116</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4359362450008127</v>
+        <v>0.4352225754249329</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5359696829879136</v>
+        <v>0.5375591111449622</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>532</v>
@@ -4740,19 +4740,19 @@
         <v>353103</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>331422</v>
+        <v>330265</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>375464</v>
+        <v>375040</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5662515419901205</v>
+        <v>0.5662515419901206</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5314829514771401</v>
+        <v>0.5296269837777504</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6021103357909362</v>
+        <v>0.601431009532058</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>778</v>
@@ -4761,19 +4761,19 @@
         <v>594189</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>561216</v>
+        <v>561743</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>625808</v>
+        <v>628114</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5294290438252469</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5000500134094931</v>
+        <v>0.5005191404104519</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5576021678139208</v>
+        <v>0.5596567081831785</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>257654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>231430</v>
+        <v>230637</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281321</v>
+        <v>281677</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5166106034688884</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4640303170120862</v>
+        <v>0.462440888855038</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5640637549991873</v>
+        <v>0.5647774245750672</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>329</v>
@@ -4811,19 +4811,19 @@
         <v>270477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248116</v>
+        <v>248540</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>292158</v>
+        <v>293315</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4337484580098793</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3978896642090636</v>
+        <v>0.398568990467942</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4685170485228599</v>
+        <v>0.4703730162222496</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>538</v>
@@ -4832,19 +4832,19 @@
         <v>528131</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>496512</v>
+        <v>494206</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>561104</v>
+        <v>560577</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4705709561747531</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4423978321860792</v>
+        <v>0.4403432918168215</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4999499865905068</v>
+        <v>0.4994808595895482</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>421321</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>392753</v>
+        <v>389642</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>456629</v>
+        <v>457480</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4388137296571785</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4090589445567644</v>
+        <v>0.4058196480210127</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4755878297719587</v>
+        <v>0.4764738937355362</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>935</v>
@@ -4957,19 +4957,19 @@
         <v>582917</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>550712</v>
+        <v>554414</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>613800</v>
+        <v>615392</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5223978352060484</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4935365892252916</v>
+        <v>0.4968535538032888</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5500741271636961</v>
+        <v>0.5515011519229646</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1390</v>
@@ -4978,19 +4978,19 @@
         <v>1004238</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>956411</v>
+        <v>957506</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1047545</v>
+        <v>1051728</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4837404618768494</v>
+        <v>0.4837404618768493</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4607019705755014</v>
+        <v>0.4612295247000718</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5046011462091835</v>
+        <v>0.5066159161745351</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>538816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>503508</v>
+        <v>502657</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>567384</v>
+        <v>570495</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5611862703428216</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5244121702280412</v>
+        <v>0.5235261062644635</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5909410554432355</v>
+        <v>0.5941803519789872</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>672</v>
@@ -5028,19 +5028,19 @@
         <v>532932</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>502049</v>
+        <v>500457</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>565137</v>
+        <v>561435</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4776021647939514</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.449925872836304</v>
+        <v>0.4484988480770353</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5064634107747084</v>
+        <v>0.5031464461967113</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1127</v>
@@ -5049,19 +5049,19 @@
         <v>1071748</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1028441</v>
+        <v>1024258</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1119575</v>
+        <v>1118480</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5162595381231506</v>
+        <v>0.5162595381231505</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4953988537908163</v>
+        <v>0.4933840838254649</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5392980294244987</v>
+        <v>0.5387704752999286</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>403113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>374730</v>
+        <v>371137</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>437430</v>
+        <v>440989</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3852084951320486</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3580864422398379</v>
+        <v>0.3546530559440347</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4180012867579371</v>
+        <v>0.4214022248093379</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>714</v>
@@ -5174,19 +5174,19 @@
         <v>452697</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>425023</v>
+        <v>424945</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>481475</v>
+        <v>482095</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4321106424611463</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4056946824500942</v>
+        <v>0.4056200375882525</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4595794770381609</v>
+        <v>0.4601715398547165</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1159</v>
@@ -5195,19 +5195,19 @@
         <v>855810</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>810729</v>
+        <v>805717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>902330</v>
+        <v>897972</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.408672585488173</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.387145139312304</v>
+        <v>0.3847520939298476</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4308871400473483</v>
+        <v>0.4288062899165735</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>643366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>609049</v>
+        <v>605490</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>671749</v>
+        <v>675342</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6147915048679514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.581998713242063</v>
+        <v>0.5785977751906622</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6419135577601621</v>
+        <v>0.6453469440559654</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>802</v>
@@ -5245,19 +5245,19 @@
         <v>594945</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>566167</v>
+        <v>565547</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>622619</v>
+        <v>622697</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5678893575388537</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5404205229618391</v>
+        <v>0.5398284601452836</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5943053175499056</v>
+        <v>0.5943799624117475</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1386</v>
@@ -5266,19 +5266,19 @@
         <v>1238311</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1191791</v>
+        <v>1196149</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1283392</v>
+        <v>1288404</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5913274145118269</v>
+        <v>0.591327414511827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5691128599526517</v>
+        <v>0.5711937100834266</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.612854860687696</v>
+        <v>0.6152479060701525</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>312653</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>282475</v>
+        <v>279922</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>346641</v>
+        <v>344098</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3203641101884862</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2894424979160216</v>
+        <v>0.28682622769893</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3551904799499399</v>
+        <v>0.3525848783464967</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>486</v>
@@ -5391,19 +5391,19 @@
         <v>319580</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>294902</v>
+        <v>295453</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>345417</v>
+        <v>345734</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.351053592855271</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.323945486569102</v>
+        <v>0.3245509958774356</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3794349130907396</v>
+        <v>0.3797834403292102</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>818</v>
@@ -5412,19 +5412,19 @@
         <v>632233</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>592147</v>
+        <v>590070</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>672927</v>
+        <v>676748</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3351753274831263</v>
+        <v>0.3351753274831262</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.313923981297088</v>
+        <v>0.3128233044982601</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3567495100397985</v>
+        <v>0.3587750096825408</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>663276</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>629288</v>
+        <v>631831</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>693454</v>
+        <v>696007</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6796358898115139</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6448095200500602</v>
+        <v>0.6474151216535035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7105575020839789</v>
+        <v>0.7131737723010702</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>838</v>
@@ -5462,19 +5462,19 @@
         <v>590765</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>564928</v>
+        <v>564611</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>615443</v>
+        <v>614892</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.648946407144729</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6205650869092604</v>
+        <v>0.6202165596707898</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6760545134308981</v>
+        <v>0.6754490041225644</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1453</v>
@@ -5483,19 +5483,19 @@
         <v>1254041</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1213347</v>
+        <v>1209526</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1294127</v>
+        <v>1296204</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6648246725168738</v>
+        <v>0.6648246725168736</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6432504899602016</v>
+        <v>0.6412249903174592</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6860760187029119</v>
+        <v>0.6871766955017399</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1378172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1315852</v>
+        <v>1322942</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1439696</v>
+        <v>1440326</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3958802769143799</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.37797906716024</v>
+        <v>0.3800154339900582</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4135530397270822</v>
+        <v>0.4137341337565758</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2667</v>
@@ -5608,19 +5608,19 @@
         <v>1708297</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1649796</v>
+        <v>1653095</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1764866</v>
+        <v>1760452</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4620246812350473</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4462024050972923</v>
+        <v>0.4470947068728956</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4773241869724315</v>
+        <v>0.4761302550996195</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4145</v>
@@ -5629,19 +5629,19 @@
         <v>3086470</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2999802</v>
+        <v>3000354</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3171846</v>
+        <v>3165812</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4299481958002699</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4178753511009284</v>
+        <v>0.417952157866535</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.441841196673895</v>
+        <v>0.4410007347289119</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2103112</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2041588</v>
+        <v>2040958</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2165432</v>
+        <v>2158342</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.60411972308562</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5864469602729178</v>
+        <v>0.5862658662434239</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.62202093283976</v>
+        <v>0.6199845660099417</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2641</v>
@@ -5679,19 +5679,19 @@
         <v>1989119</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1932550</v>
+        <v>1936964</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2047620</v>
+        <v>2044321</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5379753187649526</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5226758130275686</v>
+        <v>0.5238697449003804</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5537975949027076</v>
+        <v>0.5529052931271041</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4504</v>
@@ -5700,19 +5700,19 @@
         <v>4092231</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4006855</v>
+        <v>4012889</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4178899</v>
+        <v>4178347</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5700518041997302</v>
+        <v>0.5700518041997301</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5581588033261049</v>
+        <v>0.558999265271088</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5821246488990716</v>
+        <v>0.5820478421334649</v>
       </c>
     </row>
     <row r="18">
